--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.797777</v>
+        <v>11.14494766666667</v>
       </c>
       <c r="H2">
-        <v>122.393331</v>
+        <v>33.434843</v>
       </c>
       <c r="I2">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="J2">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.806204333333334</v>
+        <v>0.05112433333333333</v>
       </c>
       <c r="N2">
-        <v>14.418613</v>
+        <v>0.153373</v>
       </c>
       <c r="O2">
-        <v>0.7287437301541012</v>
+        <v>0.006671445085820153</v>
       </c>
       <c r="P2">
-        <v>0.7287437301541012</v>
+        <v>0.006671445085820154</v>
       </c>
       <c r="Q2">
-        <v>196.082452607767</v>
+        <v>0.5697780194932223</v>
       </c>
       <c r="R2">
-        <v>1764.742073469903</v>
+        <v>5.128002175439001</v>
       </c>
       <c r="S2">
-        <v>0.1959760580911223</v>
+        <v>0.0008538241160125819</v>
       </c>
       <c r="T2">
-        <v>0.1959760580911223</v>
+        <v>0.000853824116012582</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.797777</v>
+        <v>11.14494766666667</v>
       </c>
       <c r="H3">
-        <v>122.393331</v>
+        <v>33.434843</v>
       </c>
       <c r="I3">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="J3">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.788987</v>
+        <v>4.806204333333334</v>
       </c>
       <c r="N3">
-        <v>5.366961</v>
+        <v>14.418613</v>
       </c>
       <c r="O3">
-        <v>0.2712562698458988</v>
+        <v>0.6271833037313775</v>
       </c>
       <c r="P3">
-        <v>0.2712562698458988</v>
+        <v>0.6271833037313777</v>
       </c>
       <c r="Q3">
-        <v>72.98669268189899</v>
+        <v>53.56489577030656</v>
       </c>
       <c r="R3">
-        <v>656.880234137091</v>
+        <v>482.084061932759</v>
       </c>
       <c r="S3">
-        <v>0.07294709003624604</v>
+        <v>0.08026810128805278</v>
       </c>
       <c r="T3">
-        <v>0.07294709003624604</v>
+        <v>0.0802681012880528</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.219831</v>
+        <v>11.14494766666667</v>
       </c>
       <c r="H4">
-        <v>138.659493</v>
+        <v>33.434843</v>
       </c>
       <c r="I4">
-        <v>0.3046632285488233</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="J4">
-        <v>0.3046632285488233</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.806204333333334</v>
+        <v>2.805828666666667</v>
       </c>
       <c r="N4">
-        <v>14.418613</v>
+        <v>8.417486</v>
       </c>
       <c r="O4">
-        <v>0.7287437301541012</v>
+        <v>0.3661452511828023</v>
       </c>
       <c r="P4">
-        <v>0.7287437301541012</v>
+        <v>0.3661452511828023</v>
       </c>
       <c r="Q4">
-        <v>222.1419520381343</v>
+        <v>31.27081365163311</v>
       </c>
       <c r="R4">
-        <v>1999.277568343209</v>
+        <v>281.437322864698</v>
       </c>
       <c r="S4">
-        <v>0.222021417613461</v>
+        <v>0.04685995933442186</v>
       </c>
       <c r="T4">
-        <v>0.222021417613461</v>
+        <v>0.04685995933442186</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>138.659493</v>
       </c>
       <c r="I5">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439682</v>
       </c>
       <c r="J5">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439681</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.788987</v>
+        <v>0.05112433333333333</v>
       </c>
       <c r="N5">
-        <v>5.366961</v>
+        <v>0.153373</v>
       </c>
       <c r="O5">
-        <v>0.2712562698458988</v>
+        <v>0.006671445085820153</v>
       </c>
       <c r="P5">
-        <v>0.2712562698458988</v>
+        <v>0.006671445085820154</v>
       </c>
       <c r="Q5">
-        <v>82.686676801197</v>
+        <v>2.362958046654333</v>
       </c>
       <c r="R5">
-        <v>744.180091210773</v>
+        <v>21.266622419889</v>
       </c>
       <c r="S5">
-        <v>0.08264181093536237</v>
+        <v>0.003540941377756067</v>
       </c>
       <c r="T5">
-        <v>0.08264181093536237</v>
+        <v>0.003540941377756067</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>64.69033266666666</v>
+        <v>46.219831</v>
       </c>
       <c r="H6">
-        <v>194.070998</v>
+        <v>138.659493</v>
       </c>
       <c r="I6">
-        <v>0.4264136233238083</v>
+        <v>0.5307607770439682</v>
       </c>
       <c r="J6">
-        <v>0.4264136233238083</v>
+        <v>0.5307607770439681</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>14.418613</v>
       </c>
       <c r="O6">
-        <v>0.7287437301541012</v>
+        <v>0.6271833037313775</v>
       </c>
       <c r="P6">
-        <v>0.7287437301541012</v>
+        <v>0.6271833037313777</v>
       </c>
       <c r="Q6">
-        <v>310.9149571873082</v>
+        <v>222.1419520381343</v>
       </c>
       <c r="R6">
-        <v>2798.234614685774</v>
+        <v>1999.277568343209</v>
       </c>
       <c r="S6">
-        <v>0.3107462544495179</v>
+        <v>0.3328842976374691</v>
       </c>
       <c r="T6">
-        <v>0.3107462544495179</v>
+        <v>0.332884297637469</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.69033266666666</v>
+        <v>46.219831</v>
       </c>
       <c r="H7">
-        <v>194.070998</v>
+        <v>138.659493</v>
       </c>
       <c r="I7">
-        <v>0.4264136233238083</v>
+        <v>0.5307607770439682</v>
       </c>
       <c r="J7">
-        <v>0.4264136233238083</v>
+        <v>0.5307607770439681</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.788987</v>
+        <v>2.805828666666667</v>
       </c>
       <c r="N7">
-        <v>5.366961</v>
+        <v>8.417486</v>
       </c>
       <c r="O7">
-        <v>0.2712562698458988</v>
+        <v>0.3661452511828023</v>
       </c>
       <c r="P7">
-        <v>0.2712562698458988</v>
+        <v>0.3661452511828023</v>
       </c>
       <c r="Q7">
-        <v>115.730164166342</v>
+        <v>129.6849267882887</v>
       </c>
       <c r="R7">
-        <v>1041.571477497078</v>
+        <v>1167.164341094598</v>
       </c>
       <c r="S7">
-        <v>0.1156673688742904</v>
+        <v>0.194335538028743</v>
       </c>
       <c r="T7">
-        <v>0.1156673688742904</v>
+        <v>0.194335538028743</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>29.71744933333333</v>
+      </c>
+      <c r="H8">
+        <v>89.152348</v>
+      </c>
+      <c r="I8">
+        <v>0.3412573382175446</v>
+      </c>
+      <c r="J8">
+        <v>0.3412573382175446</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.05112433333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.153373</v>
+      </c>
+      <c r="O8">
+        <v>0.006671445085820153</v>
+      </c>
+      <c r="P8">
+        <v>0.006671445085820154</v>
+      </c>
+      <c r="Q8">
+        <v>1.519284785533778</v>
+      </c>
+      <c r="R8">
+        <v>13.673563069804</v>
+      </c>
+      <c r="S8">
+        <v>0.002276679592051504</v>
+      </c>
+      <c r="T8">
+        <v>0.002276679592051504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>29.71744933333333</v>
+      </c>
+      <c r="H9">
+        <v>89.152348</v>
+      </c>
+      <c r="I9">
+        <v>0.3412573382175446</v>
+      </c>
+      <c r="J9">
+        <v>0.3412573382175446</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.806204333333334</v>
+      </c>
+      <c r="N9">
+        <v>14.418613</v>
+      </c>
+      <c r="O9">
+        <v>0.6271833037313775</v>
+      </c>
+      <c r="P9">
+        <v>0.6271833037313777</v>
+      </c>
+      <c r="Q9">
+        <v>142.8281337614804</v>
+      </c>
+      <c r="R9">
+        <v>1285.453203853324</v>
+      </c>
+      <c r="S9">
+        <v>0.2140309048058557</v>
+      </c>
+      <c r="T9">
+        <v>0.2140309048058558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>29.71744933333333</v>
+      </c>
+      <c r="H10">
+        <v>89.152348</v>
+      </c>
+      <c r="I10">
+        <v>0.3412573382175446</v>
+      </c>
+      <c r="J10">
+        <v>0.3412573382175446</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.805828666666667</v>
+      </c>
+      <c r="N10">
+        <v>8.417486</v>
+      </c>
+      <c r="O10">
+        <v>0.3661452511828023</v>
+      </c>
+      <c r="P10">
+        <v>0.3661452511828023</v>
+      </c>
+      <c r="Q10">
+        <v>83.3820712396809</v>
+      </c>
+      <c r="R10">
+        <v>750.438641157128</v>
+      </c>
+      <c r="S10">
+        <v>0.1249497538196374</v>
+      </c>
+      <c r="T10">
+        <v>0.1249497538196374</v>
       </c>
     </row>
   </sheetData>
